--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Serie</t>
   </si>
@@ -683,6 +683,96 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>14-08-2021</t>
+  </si>
+  <si>
+    <t>15-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>21-08-2021</t>
+  </si>
+  <si>
+    <t>22-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>29-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5860,6 +5950,696 @@
         <v>9167</v>
       </c>
     </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218">
+        <v>2120</v>
+      </c>
+      <c r="C218">
+        <v>2790</v>
+      </c>
+      <c r="D218">
+        <v>15766</v>
+      </c>
+      <c r="E218">
+        <v>2752</v>
+      </c>
+      <c r="F218">
+        <v>4765</v>
+      </c>
+      <c r="G218">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219">
+        <v>2117</v>
+      </c>
+      <c r="C219">
+        <v>2786</v>
+      </c>
+      <c r="D219">
+        <v>15743</v>
+      </c>
+      <c r="E219">
+        <v>2748</v>
+      </c>
+      <c r="F219">
+        <v>4758</v>
+      </c>
+      <c r="G219">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220">
+        <v>2117</v>
+      </c>
+      <c r="C220">
+        <v>2786</v>
+      </c>
+      <c r="D220">
+        <v>15743</v>
+      </c>
+      <c r="E220">
+        <v>2748</v>
+      </c>
+      <c r="F220">
+        <v>4758</v>
+      </c>
+      <c r="G220">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221">
+        <v>2117</v>
+      </c>
+      <c r="C221">
+        <v>2786</v>
+      </c>
+      <c r="D221">
+        <v>15743</v>
+      </c>
+      <c r="E221">
+        <v>2748</v>
+      </c>
+      <c r="F221">
+        <v>4758</v>
+      </c>
+      <c r="G221">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222">
+        <v>2096</v>
+      </c>
+      <c r="C222">
+        <v>2759</v>
+      </c>
+      <c r="D222">
+        <v>15586</v>
+      </c>
+      <c r="E222">
+        <v>2721</v>
+      </c>
+      <c r="F222">
+        <v>4711</v>
+      </c>
+      <c r="G222">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223">
+        <v>2088</v>
+      </c>
+      <c r="C223">
+        <v>2748</v>
+      </c>
+      <c r="D223">
+        <v>15529</v>
+      </c>
+      <c r="E223">
+        <v>2711</v>
+      </c>
+      <c r="F223">
+        <v>4694</v>
+      </c>
+      <c r="G223">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224">
+        <v>2108</v>
+      </c>
+      <c r="C224">
+        <v>2774</v>
+      </c>
+      <c r="D224">
+        <v>15674</v>
+      </c>
+      <c r="E224">
+        <v>2736</v>
+      </c>
+      <c r="F224">
+        <v>4738</v>
+      </c>
+      <c r="G224">
+        <v>9102</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225">
+        <v>2127</v>
+      </c>
+      <c r="C225">
+        <v>2800</v>
+      </c>
+      <c r="D225">
+        <v>15818</v>
+      </c>
+      <c r="E225">
+        <v>2761</v>
+      </c>
+      <c r="F225">
+        <v>4781</v>
+      </c>
+      <c r="G225">
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226">
+        <v>2128</v>
+      </c>
+      <c r="C226">
+        <v>2800</v>
+      </c>
+      <c r="D226">
+        <v>15823</v>
+      </c>
+      <c r="E226">
+        <v>2762</v>
+      </c>
+      <c r="F226">
+        <v>4782</v>
+      </c>
+      <c r="G226">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227">
+        <v>2128</v>
+      </c>
+      <c r="C227">
+        <v>2800</v>
+      </c>
+      <c r="D227">
+        <v>15823</v>
+      </c>
+      <c r="E227">
+        <v>2762</v>
+      </c>
+      <c r="F227">
+        <v>4782</v>
+      </c>
+      <c r="G227">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228">
+        <v>2128</v>
+      </c>
+      <c r="C228">
+        <v>2800</v>
+      </c>
+      <c r="D228">
+        <v>15823</v>
+      </c>
+      <c r="E228">
+        <v>2762</v>
+      </c>
+      <c r="F228">
+        <v>4782</v>
+      </c>
+      <c r="G228">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229">
+        <v>2124</v>
+      </c>
+      <c r="C229">
+        <v>2795</v>
+      </c>
+      <c r="D229">
+        <v>15793</v>
+      </c>
+      <c r="E229">
+        <v>2757</v>
+      </c>
+      <c r="F229">
+        <v>4773</v>
+      </c>
+      <c r="G229">
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230">
+        <v>2097</v>
+      </c>
+      <c r="C230">
+        <v>2760</v>
+      </c>
+      <c r="D230">
+        <v>15593</v>
+      </c>
+      <c r="E230">
+        <v>2722</v>
+      </c>
+      <c r="F230">
+        <v>4713</v>
+      </c>
+      <c r="G230">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231">
+        <v>2083</v>
+      </c>
+      <c r="C231">
+        <v>2741</v>
+      </c>
+      <c r="D231">
+        <v>15485</v>
+      </c>
+      <c r="E231">
+        <v>2703</v>
+      </c>
+      <c r="F231">
+        <v>4680</v>
+      </c>
+      <c r="G231">
+        <v>8992</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232">
+        <v>2088</v>
+      </c>
+      <c r="C232">
+        <v>2747</v>
+      </c>
+      <c r="D232">
+        <v>15523</v>
+      </c>
+      <c r="E232">
+        <v>2710</v>
+      </c>
+      <c r="F232">
+        <v>4692</v>
+      </c>
+      <c r="G232">
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233">
+        <v>2082</v>
+      </c>
+      <c r="C233">
+        <v>2739</v>
+      </c>
+      <c r="D233">
+        <v>15478</v>
+      </c>
+      <c r="E233">
+        <v>2702</v>
+      </c>
+      <c r="F233">
+        <v>4678</v>
+      </c>
+      <c r="G233">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234">
+        <v>2082</v>
+      </c>
+      <c r="C234">
+        <v>2739</v>
+      </c>
+      <c r="D234">
+        <v>15478</v>
+      </c>
+      <c r="E234">
+        <v>2702</v>
+      </c>
+      <c r="F234">
+        <v>4678</v>
+      </c>
+      <c r="G234">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235">
+        <v>2082</v>
+      </c>
+      <c r="C235">
+        <v>2739</v>
+      </c>
+      <c r="D235">
+        <v>15478</v>
+      </c>
+      <c r="E235">
+        <v>2702</v>
+      </c>
+      <c r="F235">
+        <v>4678</v>
+      </c>
+      <c r="G235">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236">
+        <v>2091</v>
+      </c>
+      <c r="C236">
+        <v>2752</v>
+      </c>
+      <c r="D236">
+        <v>15548</v>
+      </c>
+      <c r="E236">
+        <v>2714</v>
+      </c>
+      <c r="F236">
+        <v>4699</v>
+      </c>
+      <c r="G236">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237">
+        <v>2099</v>
+      </c>
+      <c r="C237">
+        <v>2763</v>
+      </c>
+      <c r="D237">
+        <v>15610</v>
+      </c>
+      <c r="E237">
+        <v>2725</v>
+      </c>
+      <c r="F237">
+        <v>4718</v>
+      </c>
+      <c r="G237">
+        <v>9064</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238">
+        <v>2102</v>
+      </c>
+      <c r="C238">
+        <v>2767</v>
+      </c>
+      <c r="D238">
+        <v>15633</v>
+      </c>
+      <c r="E238">
+        <v>2729</v>
+      </c>
+      <c r="F238">
+        <v>4725</v>
+      </c>
+      <c r="G238">
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239">
+        <v>2100</v>
+      </c>
+      <c r="C239">
+        <v>2764</v>
+      </c>
+      <c r="D239">
+        <v>15615</v>
+      </c>
+      <c r="E239">
+        <v>2726</v>
+      </c>
+      <c r="F239">
+        <v>4720</v>
+      </c>
+      <c r="G239">
+        <v>9067</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240">
+        <v>2095</v>
+      </c>
+      <c r="C240">
+        <v>2757</v>
+      </c>
+      <c r="D240">
+        <v>15575</v>
+      </c>
+      <c r="E240">
+        <v>2719</v>
+      </c>
+      <c r="F240">
+        <v>4708</v>
+      </c>
+      <c r="G240">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241">
+        <v>2095</v>
+      </c>
+      <c r="C241">
+        <v>2757</v>
+      </c>
+      <c r="D241">
+        <v>15575</v>
+      </c>
+      <c r="E241">
+        <v>2719</v>
+      </c>
+      <c r="F241">
+        <v>4708</v>
+      </c>
+      <c r="G241">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242">
+        <v>2095</v>
+      </c>
+      <c r="C242">
+        <v>2757</v>
+      </c>
+      <c r="D242">
+        <v>15575</v>
+      </c>
+      <c r="E242">
+        <v>2719</v>
+      </c>
+      <c r="F242">
+        <v>4708</v>
+      </c>
+      <c r="G242">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243">
+        <v>2096</v>
+      </c>
+      <c r="C243">
+        <v>2759</v>
+      </c>
+      <c r="D243">
+        <v>15588</v>
+      </c>
+      <c r="E243">
+        <v>2721</v>
+      </c>
+      <c r="F243">
+        <v>4712</v>
+      </c>
+      <c r="G243">
+        <v>9052</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244">
+        <v>2172</v>
+      </c>
+      <c r="C244">
+        <v>2711</v>
+      </c>
+      <c r="D244">
+        <v>15677</v>
+      </c>
+      <c r="E244">
+        <v>2736</v>
+      </c>
+      <c r="F244">
+        <v>4738</v>
+      </c>
+      <c r="G244">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245">
+        <v>2186</v>
+      </c>
+      <c r="C245">
+        <v>2727</v>
+      </c>
+      <c r="D245">
+        <v>15774</v>
+      </c>
+      <c r="E245">
+        <v>2753</v>
+      </c>
+      <c r="F245">
+        <v>4768</v>
+      </c>
+      <c r="G245">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246">
+        <v>2209</v>
+      </c>
+      <c r="C246">
+        <v>2756</v>
+      </c>
+      <c r="D246">
+        <v>15940</v>
+      </c>
+      <c r="E246">
+        <v>2782</v>
+      </c>
+      <c r="F246">
+        <v>4818</v>
+      </c>
+      <c r="G246">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247">
+        <v>2205</v>
+      </c>
+      <c r="C247">
+        <v>2751</v>
+      </c>
+      <c r="D247">
+        <v>15914</v>
+      </c>
+      <c r="E247">
+        <v>2778</v>
+      </c>
+      <c r="F247">
+        <v>4810</v>
+      </c>
+      <c r="G247">
+        <v>9240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>Serie</t>
   </si>
@@ -773,6 +773,18 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>04-09-2021</t>
+  </si>
+  <si>
+    <t>05-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6640,6 +6652,98 @@
         <v>9240</v>
       </c>
     </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>253</v>
+      </c>
+      <c r="B248">
+        <v>2205</v>
+      </c>
+      <c r="C248">
+        <v>2751</v>
+      </c>
+      <c r="D248">
+        <v>15914</v>
+      </c>
+      <c r="E248">
+        <v>2778</v>
+      </c>
+      <c r="F248">
+        <v>4810</v>
+      </c>
+      <c r="G248">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249">
+        <v>2205</v>
+      </c>
+      <c r="C249">
+        <v>2751</v>
+      </c>
+      <c r="D249">
+        <v>15914</v>
+      </c>
+      <c r="E249">
+        <v>2778</v>
+      </c>
+      <c r="F249">
+        <v>4810</v>
+      </c>
+      <c r="G249">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250">
+        <v>2211</v>
+      </c>
+      <c r="C250">
+        <v>2758</v>
+      </c>
+      <c r="D250">
+        <v>15952</v>
+      </c>
+      <c r="E250">
+        <v>2784</v>
+      </c>
+      <c r="F250">
+        <v>4821</v>
+      </c>
+      <c r="G250">
+        <v>9263</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251">
+        <v>2200</v>
+      </c>
+      <c r="C251">
+        <v>2744</v>
+      </c>
+      <c r="D251">
+        <v>15873</v>
+      </c>
+      <c r="E251">
+        <v>2771</v>
+      </c>
+      <c r="F251">
+        <v>4798</v>
+      </c>
+      <c r="G251">
+        <v>9217</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>Serie</t>
   </si>
@@ -785,6 +785,30 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>11-09-2021</t>
+  </si>
+  <si>
+    <t>12-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6744,6 +6768,190 @@
         <v>9217</v>
       </c>
     </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252">
+        <v>2178</v>
+      </c>
+      <c r="C252">
+        <v>2718</v>
+      </c>
+      <c r="D252">
+        <v>15718</v>
+      </c>
+      <c r="E252">
+        <v>2744</v>
+      </c>
+      <c r="F252">
+        <v>4751</v>
+      </c>
+      <c r="G252">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253">
+        <v>2152</v>
+      </c>
+      <c r="C253">
+        <v>2685</v>
+      </c>
+      <c r="D253">
+        <v>15527</v>
+      </c>
+      <c r="E253">
+        <v>2710</v>
+      </c>
+      <c r="F253">
+        <v>4693</v>
+      </c>
+      <c r="G253">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>259</v>
+      </c>
+      <c r="B254">
+        <v>2141</v>
+      </c>
+      <c r="C254">
+        <v>2672</v>
+      </c>
+      <c r="D254">
+        <v>15453</v>
+      </c>
+      <c r="E254">
+        <v>2697</v>
+      </c>
+      <c r="F254">
+        <v>4671</v>
+      </c>
+      <c r="G254">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255">
+        <v>2141</v>
+      </c>
+      <c r="C255">
+        <v>2672</v>
+      </c>
+      <c r="D255">
+        <v>15453</v>
+      </c>
+      <c r="E255">
+        <v>2697</v>
+      </c>
+      <c r="F255">
+        <v>4671</v>
+      </c>
+      <c r="G255">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256">
+        <v>2141</v>
+      </c>
+      <c r="C256">
+        <v>2672</v>
+      </c>
+      <c r="D256">
+        <v>15453</v>
+      </c>
+      <c r="E256">
+        <v>2697</v>
+      </c>
+      <c r="F256">
+        <v>4671</v>
+      </c>
+      <c r="G256">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257">
+        <v>2145</v>
+      </c>
+      <c r="C257">
+        <v>2676</v>
+      </c>
+      <c r="D257">
+        <v>15479</v>
+      </c>
+      <c r="E257">
+        <v>2702</v>
+      </c>
+      <c r="F257">
+        <v>4679</v>
+      </c>
+      <c r="G257">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258">
+        <v>2161</v>
+      </c>
+      <c r="C258">
+        <v>2696</v>
+      </c>
+      <c r="D258">
+        <v>15591</v>
+      </c>
+      <c r="E258">
+        <v>2721</v>
+      </c>
+      <c r="F258">
+        <v>4712</v>
+      </c>
+      <c r="G258">
+        <v>9053</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259">
+        <v>2163</v>
+      </c>
+      <c r="C259">
+        <v>2699</v>
+      </c>
+      <c r="D259">
+        <v>15611</v>
+      </c>
+      <c r="E259">
+        <v>2725</v>
+      </c>
+      <c r="F259">
+        <v>4719</v>
+      </c>
+      <c r="G259">
+        <v>9065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>Serie</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6952,6 +6955,29 @@
         <v>9065</v>
       </c>
     </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260">
+        <v>2167</v>
+      </c>
+      <c r="C260">
+        <v>2704</v>
+      </c>
+      <c r="D260">
+        <v>15639</v>
+      </c>
+      <c r="E260">
+        <v>2730</v>
+      </c>
+      <c r="F260">
+        <v>4727</v>
+      </c>
+      <c r="G260">
+        <v>9081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Serie</t>
   </si>
@@ -812,6 +812,48 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>17-09-2021</t>
+  </si>
+  <si>
+    <t>18-09-2021</t>
+  </si>
+  <si>
+    <t>19-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>25-09-2021</t>
+  </si>
+  <si>
+    <t>26-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6978,6 +7020,328 @@
         <v>9081</v>
       </c>
     </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261">
+        <v>2167</v>
+      </c>
+      <c r="C261">
+        <v>2704</v>
+      </c>
+      <c r="D261">
+        <v>15639</v>
+      </c>
+      <c r="E261">
+        <v>2730</v>
+      </c>
+      <c r="F261">
+        <v>4727</v>
+      </c>
+      <c r="G261">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262">
+        <v>2167</v>
+      </c>
+      <c r="C262">
+        <v>2704</v>
+      </c>
+      <c r="D262">
+        <v>15639</v>
+      </c>
+      <c r="E262">
+        <v>2730</v>
+      </c>
+      <c r="F262">
+        <v>4727</v>
+      </c>
+      <c r="G262">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263">
+        <v>2167</v>
+      </c>
+      <c r="C263">
+        <v>2704</v>
+      </c>
+      <c r="D263">
+        <v>15639</v>
+      </c>
+      <c r="E263">
+        <v>2730</v>
+      </c>
+      <c r="F263">
+        <v>4727</v>
+      </c>
+      <c r="G263">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264">
+        <v>2171</v>
+      </c>
+      <c r="C264">
+        <v>2708</v>
+      </c>
+      <c r="D264">
+        <v>15664</v>
+      </c>
+      <c r="E264">
+        <v>2734</v>
+      </c>
+      <c r="F264">
+        <v>4735</v>
+      </c>
+      <c r="G264">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265">
+        <v>2150</v>
+      </c>
+      <c r="C265">
+        <v>2683</v>
+      </c>
+      <c r="D265">
+        <v>15516</v>
+      </c>
+      <c r="E265">
+        <v>2708</v>
+      </c>
+      <c r="F265">
+        <v>4690</v>
+      </c>
+      <c r="G265">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266">
+        <v>2158</v>
+      </c>
+      <c r="C266">
+        <v>2693</v>
+      </c>
+      <c r="D266">
+        <v>15574</v>
+      </c>
+      <c r="E266">
+        <v>2719</v>
+      </c>
+      <c r="F266">
+        <v>4707</v>
+      </c>
+      <c r="G266">
+        <v>9043</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267">
+        <v>2158</v>
+      </c>
+      <c r="C267">
+        <v>2693</v>
+      </c>
+      <c r="D267">
+        <v>15576</v>
+      </c>
+      <c r="E267">
+        <v>2719</v>
+      </c>
+      <c r="F267">
+        <v>4708</v>
+      </c>
+      <c r="G267">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268">
+        <v>2152</v>
+      </c>
+      <c r="C268">
+        <v>2686</v>
+      </c>
+      <c r="D268">
+        <v>15532</v>
+      </c>
+      <c r="E268">
+        <v>2711</v>
+      </c>
+      <c r="F268">
+        <v>4695</v>
+      </c>
+      <c r="G268">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269">
+        <v>2152</v>
+      </c>
+      <c r="C269">
+        <v>2686</v>
+      </c>
+      <c r="D269">
+        <v>15532</v>
+      </c>
+      <c r="E269">
+        <v>2711</v>
+      </c>
+      <c r="F269">
+        <v>4695</v>
+      </c>
+      <c r="G269">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270">
+        <v>2152</v>
+      </c>
+      <c r="C270">
+        <v>2686</v>
+      </c>
+      <c r="D270">
+        <v>15532</v>
+      </c>
+      <c r="E270">
+        <v>2711</v>
+      </c>
+      <c r="F270">
+        <v>4695</v>
+      </c>
+      <c r="G270">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271">
+        <v>2148</v>
+      </c>
+      <c r="C271">
+        <v>2680</v>
+      </c>
+      <c r="D271">
+        <v>15498</v>
+      </c>
+      <c r="E271">
+        <v>2705</v>
+      </c>
+      <c r="F271">
+        <v>4684</v>
+      </c>
+      <c r="G271">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272">
+        <v>2130</v>
+      </c>
+      <c r="C272">
+        <v>2658</v>
+      </c>
+      <c r="D272">
+        <v>15371</v>
+      </c>
+      <c r="E272">
+        <v>2683</v>
+      </c>
+      <c r="F272">
+        <v>4646</v>
+      </c>
+      <c r="G272">
+        <v>8925</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273">
+        <v>2122</v>
+      </c>
+      <c r="C273">
+        <v>2647</v>
+      </c>
+      <c r="D273">
+        <v>15310</v>
+      </c>
+      <c r="E273">
+        <v>2672</v>
+      </c>
+      <c r="F273">
+        <v>4628</v>
+      </c>
+      <c r="G273">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274">
+        <v>2109</v>
+      </c>
+      <c r="C274">
+        <v>2631</v>
+      </c>
+      <c r="D274">
+        <v>15216</v>
+      </c>
+      <c r="E274">
+        <v>2656</v>
+      </c>
+      <c r="F274">
+        <v>4599</v>
+      </c>
+      <c r="G274">
+        <v>8835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>Serie</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7342,6 +7345,29 @@
         <v>8835</v>
       </c>
     </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275">
+        <v>2087</v>
+      </c>
+      <c r="C275">
+        <v>2604</v>
+      </c>
+      <c r="D275">
+        <v>15060</v>
+      </c>
+      <c r="E275">
+        <v>2629</v>
+      </c>
+      <c r="F275">
+        <v>4552</v>
+      </c>
+      <c r="G275">
+        <v>8745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>Serie</t>
   </si>
@@ -857,6 +857,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>02-10-2021</t>
+  </si>
+  <si>
+    <t>03-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G275"/>
+  <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7368,6 +7383,121 @@
         <v>8745</v>
       </c>
     </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276">
+        <v>2087</v>
+      </c>
+      <c r="C276">
+        <v>2604</v>
+      </c>
+      <c r="D276">
+        <v>15060</v>
+      </c>
+      <c r="E276">
+        <v>2629</v>
+      </c>
+      <c r="F276">
+        <v>4552</v>
+      </c>
+      <c r="G276">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277">
+        <v>2087</v>
+      </c>
+      <c r="C277">
+        <v>2604</v>
+      </c>
+      <c r="D277">
+        <v>15060</v>
+      </c>
+      <c r="E277">
+        <v>2629</v>
+      </c>
+      <c r="F277">
+        <v>4552</v>
+      </c>
+      <c r="G277">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278">
+        <v>2108</v>
+      </c>
+      <c r="C278">
+        <v>2630</v>
+      </c>
+      <c r="D278">
+        <v>15210</v>
+      </c>
+      <c r="E278">
+        <v>2655</v>
+      </c>
+      <c r="F278">
+        <v>4597</v>
+      </c>
+      <c r="G278">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279">
+        <v>2103</v>
+      </c>
+      <c r="C279">
+        <v>2623</v>
+      </c>
+      <c r="D279">
+        <v>15172</v>
+      </c>
+      <c r="E279">
+        <v>2648</v>
+      </c>
+      <c r="F279">
+        <v>4586</v>
+      </c>
+      <c r="G279">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280">
+        <v>2090</v>
+      </c>
+      <c r="C280">
+        <v>2608</v>
+      </c>
+      <c r="D280">
+        <v>15084</v>
+      </c>
+      <c r="E280">
+        <v>2633</v>
+      </c>
+      <c r="F280">
+        <v>4559</v>
+      </c>
+      <c r="G280">
+        <v>8759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>Serie</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7498,6 +7501,29 @@
         <v>8759</v>
       </c>
     </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281">
+        <v>2076</v>
+      </c>
+      <c r="C281">
+        <v>2590</v>
+      </c>
+      <c r="D281">
+        <v>14979</v>
+      </c>
+      <c r="E281">
+        <v>2615</v>
+      </c>
+      <c r="F281">
+        <v>4528</v>
+      </c>
+      <c r="G281">
+        <v>8698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>Serie</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7524,6 +7527,29 @@
         <v>8698</v>
       </c>
     </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282">
+        <v>2083</v>
+      </c>
+      <c r="C282">
+        <v>2598</v>
+      </c>
+      <c r="D282">
+        <v>15028</v>
+      </c>
+      <c r="E282">
+        <v>2623</v>
+      </c>
+      <c r="F282">
+        <v>4542</v>
+      </c>
+      <c r="G282">
+        <v>8726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>Serie</t>
   </si>
@@ -878,6 +878,24 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>09-10-2021</t>
+  </si>
+  <si>
+    <t>10-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G282"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7550,6 +7568,144 @@
         <v>8726</v>
       </c>
     </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>288</v>
+      </c>
+      <c r="B283">
+        <v>2083</v>
+      </c>
+      <c r="C283">
+        <v>2598</v>
+      </c>
+      <c r="D283">
+        <v>15028</v>
+      </c>
+      <c r="E283">
+        <v>2623</v>
+      </c>
+      <c r="F283">
+        <v>4542</v>
+      </c>
+      <c r="G283">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>289</v>
+      </c>
+      <c r="B284">
+        <v>2083</v>
+      </c>
+      <c r="C284">
+        <v>2598</v>
+      </c>
+      <c r="D284">
+        <v>15028</v>
+      </c>
+      <c r="E284">
+        <v>2623</v>
+      </c>
+      <c r="F284">
+        <v>4542</v>
+      </c>
+      <c r="G284">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>290</v>
+      </c>
+      <c r="B285">
+        <v>2083</v>
+      </c>
+      <c r="C285">
+        <v>2598</v>
+      </c>
+      <c r="D285">
+        <v>15028</v>
+      </c>
+      <c r="E285">
+        <v>2623</v>
+      </c>
+      <c r="F285">
+        <v>4542</v>
+      </c>
+      <c r="G285">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>291</v>
+      </c>
+      <c r="B286">
+        <v>2066</v>
+      </c>
+      <c r="C286">
+        <v>2578</v>
+      </c>
+      <c r="D286">
+        <v>14908</v>
+      </c>
+      <c r="E286">
+        <v>2602</v>
+      </c>
+      <c r="F286">
+        <v>4506</v>
+      </c>
+      <c r="G286">
+        <v>8657</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287">
+        <v>2048</v>
+      </c>
+      <c r="C287">
+        <v>2555</v>
+      </c>
+      <c r="D287">
+        <v>14775</v>
+      </c>
+      <c r="E287">
+        <v>2579</v>
+      </c>
+      <c r="F287">
+        <v>4466</v>
+      </c>
+      <c r="G287">
+        <v>8579</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>293</v>
+      </c>
+      <c r="B288">
+        <v>2066</v>
+      </c>
+      <c r="C288">
+        <v>2578</v>
+      </c>
+      <c r="D288">
+        <v>14908</v>
+      </c>
+      <c r="E288">
+        <v>2602</v>
+      </c>
+      <c r="F288">
+        <v>4506</v>
+      </c>
+      <c r="G288">
+        <v>8657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t>Serie</t>
   </si>
@@ -896,6 +896,48 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>16-10-2021</t>
+  </si>
+  <si>
+    <t>17-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>23-10-2021</t>
+  </si>
+  <si>
+    <t>24-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G288"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7706,6 +7748,328 @@
         <v>8657</v>
       </c>
     </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289">
+        <v>2074</v>
+      </c>
+      <c r="C289">
+        <v>2588</v>
+      </c>
+      <c r="D289">
+        <v>14970</v>
+      </c>
+      <c r="E289">
+        <v>2613</v>
+      </c>
+      <c r="F289">
+        <v>4525</v>
+      </c>
+      <c r="G289">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>295</v>
+      </c>
+      <c r="B290">
+        <v>2074</v>
+      </c>
+      <c r="C290">
+        <v>2588</v>
+      </c>
+      <c r="D290">
+        <v>14970</v>
+      </c>
+      <c r="E290">
+        <v>2613</v>
+      </c>
+      <c r="F290">
+        <v>4525</v>
+      </c>
+      <c r="G290">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>296</v>
+      </c>
+      <c r="B291">
+        <v>2074</v>
+      </c>
+      <c r="C291">
+        <v>2588</v>
+      </c>
+      <c r="D291">
+        <v>14970</v>
+      </c>
+      <c r="E291">
+        <v>2613</v>
+      </c>
+      <c r="F291">
+        <v>4525</v>
+      </c>
+      <c r="G291">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>297</v>
+      </c>
+      <c r="B292">
+        <v>2051</v>
+      </c>
+      <c r="C292">
+        <v>2559</v>
+      </c>
+      <c r="D292">
+        <v>14800</v>
+      </c>
+      <c r="E292">
+        <v>2583</v>
+      </c>
+      <c r="F292">
+        <v>4473</v>
+      </c>
+      <c r="G292">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>298</v>
+      </c>
+      <c r="B293">
+        <v>2066</v>
+      </c>
+      <c r="C293">
+        <v>2577</v>
+      </c>
+      <c r="D293">
+        <v>14906</v>
+      </c>
+      <c r="E293">
+        <v>2602</v>
+      </c>
+      <c r="F293">
+        <v>4505</v>
+      </c>
+      <c r="G293">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>299</v>
+      </c>
+      <c r="B294">
+        <v>2083</v>
+      </c>
+      <c r="C294">
+        <v>2599</v>
+      </c>
+      <c r="D294">
+        <v>15034</v>
+      </c>
+      <c r="E294">
+        <v>2624</v>
+      </c>
+      <c r="F294">
+        <v>4544</v>
+      </c>
+      <c r="G294">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>300</v>
+      </c>
+      <c r="B295">
+        <v>2088</v>
+      </c>
+      <c r="C295">
+        <v>2605</v>
+      </c>
+      <c r="D295">
+        <v>15067</v>
+      </c>
+      <c r="E295">
+        <v>2630</v>
+      </c>
+      <c r="F295">
+        <v>4554</v>
+      </c>
+      <c r="G295">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>301</v>
+      </c>
+      <c r="B296">
+        <v>2072</v>
+      </c>
+      <c r="C296">
+        <v>2586</v>
+      </c>
+      <c r="D296">
+        <v>14955</v>
+      </c>
+      <c r="E296">
+        <v>2610</v>
+      </c>
+      <c r="F296">
+        <v>4520</v>
+      </c>
+      <c r="G296">
+        <v>8684</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>302</v>
+      </c>
+      <c r="B297">
+        <v>2072</v>
+      </c>
+      <c r="C297">
+        <v>2586</v>
+      </c>
+      <c r="D297">
+        <v>14955</v>
+      </c>
+      <c r="E297">
+        <v>2610</v>
+      </c>
+      <c r="F297">
+        <v>4520</v>
+      </c>
+      <c r="G297">
+        <v>8684</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>303</v>
+      </c>
+      <c r="B298">
+        <v>2072</v>
+      </c>
+      <c r="C298">
+        <v>2586</v>
+      </c>
+      <c r="D298">
+        <v>14955</v>
+      </c>
+      <c r="E298">
+        <v>2610</v>
+      </c>
+      <c r="F298">
+        <v>4520</v>
+      </c>
+      <c r="G298">
+        <v>8684</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>304</v>
+      </c>
+      <c r="B299">
+        <v>2075</v>
+      </c>
+      <c r="C299">
+        <v>2589</v>
+      </c>
+      <c r="D299">
+        <v>14974</v>
+      </c>
+      <c r="E299">
+        <v>2614</v>
+      </c>
+      <c r="F299">
+        <v>4526</v>
+      </c>
+      <c r="G299">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300">
+        <v>2091</v>
+      </c>
+      <c r="C300">
+        <v>2610</v>
+      </c>
+      <c r="D300">
+        <v>15093</v>
+      </c>
+      <c r="E300">
+        <v>2634</v>
+      </c>
+      <c r="F300">
+        <v>4562</v>
+      </c>
+      <c r="G300">
+        <v>8764</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>306</v>
+      </c>
+      <c r="B301">
+        <v>2101</v>
+      </c>
+      <c r="C301">
+        <v>2621</v>
+      </c>
+      <c r="D301">
+        <v>15160</v>
+      </c>
+      <c r="E301">
+        <v>2646</v>
+      </c>
+      <c r="F301">
+        <v>4582</v>
+      </c>
+      <c r="G301">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>307</v>
+      </c>
+      <c r="B302">
+        <v>2107</v>
+      </c>
+      <c r="C302">
+        <v>2628</v>
+      </c>
+      <c r="D302">
+        <v>15202</v>
+      </c>
+      <c r="E302">
+        <v>2654</v>
+      </c>
+      <c r="F302">
+        <v>4595</v>
+      </c>
+      <c r="G302">
+        <v>8827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Serie</t>
   </si>
@@ -938,6 +938,21 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>30-10-2021</t>
+  </si>
+  <si>
+    <t>31-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8070,6 +8085,121 @@
         <v>8827</v>
       </c>
     </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>308</v>
+      </c>
+      <c r="B303">
+        <v>2104</v>
+      </c>
+      <c r="C303">
+        <v>2625</v>
+      </c>
+      <c r="D303">
+        <v>15180</v>
+      </c>
+      <c r="E303">
+        <v>2650</v>
+      </c>
+      <c r="F303">
+        <v>4588</v>
+      </c>
+      <c r="G303">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>309</v>
+      </c>
+      <c r="B304">
+        <v>2104</v>
+      </c>
+      <c r="C304">
+        <v>2625</v>
+      </c>
+      <c r="D304">
+        <v>15180</v>
+      </c>
+      <c r="E304">
+        <v>2650</v>
+      </c>
+      <c r="F304">
+        <v>4588</v>
+      </c>
+      <c r="G304">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>310</v>
+      </c>
+      <c r="B305">
+        <v>2104</v>
+      </c>
+      <c r="C305">
+        <v>2625</v>
+      </c>
+      <c r="D305">
+        <v>15180</v>
+      </c>
+      <c r="E305">
+        <v>2650</v>
+      </c>
+      <c r="F305">
+        <v>4588</v>
+      </c>
+      <c r="G305">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>311</v>
+      </c>
+      <c r="B306">
+        <v>2104</v>
+      </c>
+      <c r="C306">
+        <v>2625</v>
+      </c>
+      <c r="D306">
+        <v>15180</v>
+      </c>
+      <c r="E306">
+        <v>2650</v>
+      </c>
+      <c r="F306">
+        <v>4588</v>
+      </c>
+      <c r="G306">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>312</v>
+      </c>
+      <c r="B307">
+        <v>2090</v>
+      </c>
+      <c r="C307">
+        <v>2607</v>
+      </c>
+      <c r="D307">
+        <v>15079</v>
+      </c>
+      <c r="E307">
+        <v>2632</v>
+      </c>
+      <c r="F307">
+        <v>4558</v>
+      </c>
+      <c r="G307">
+        <v>8756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Serie</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8200,6 +8203,29 @@
         <v>8756</v>
       </c>
     </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>313</v>
+      </c>
+      <c r="B308">
+        <v>2081</v>
+      </c>
+      <c r="C308">
+        <v>2596</v>
+      </c>
+      <c r="D308">
+        <v>15014</v>
+      </c>
+      <c r="E308">
+        <v>2621</v>
+      </c>
+      <c r="F308">
+        <v>4538</v>
+      </c>
+      <c r="G308">
+        <v>8718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>Serie</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8226,6 +8229,29 @@
         <v>8718</v>
       </c>
     </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>314</v>
+      </c>
+      <c r="B309">
+        <v>2081</v>
+      </c>
+      <c r="C309">
+        <v>2589</v>
+      </c>
+      <c r="D309">
+        <v>14993</v>
+      </c>
+      <c r="E309">
+        <v>2617</v>
+      </c>
+      <c r="F309">
+        <v>4532</v>
+      </c>
+      <c r="G309">
+        <v>8706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Serie</t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8252,6 +8255,29 @@
         <v>8706</v>
       </c>
     </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>315</v>
+      </c>
+      <c r="B310">
+        <v>2081</v>
+      </c>
+      <c r="C310">
+        <v>2589</v>
+      </c>
+      <c r="D310">
+        <v>14992</v>
+      </c>
+      <c r="E310">
+        <v>2617</v>
+      </c>
+      <c r="F310">
+        <v>4531</v>
+      </c>
+      <c r="G310">
+        <v>8705</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
+++ b/5/7/Liquidez en pesos con incentivo al crédito 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>Serie</t>
   </si>
@@ -962,6 +962,15 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>06-11-2021</t>
+  </si>
+  <si>
+    <t>07-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G310"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8278,6 +8287,75 @@
         <v>8705</v>
       </c>
     </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>316</v>
+      </c>
+      <c r="B311">
+        <v>2081</v>
+      </c>
+      <c r="C311">
+        <v>2589</v>
+      </c>
+      <c r="D311">
+        <v>14992</v>
+      </c>
+      <c r="E311">
+        <v>2617</v>
+      </c>
+      <c r="F311">
+        <v>4531</v>
+      </c>
+      <c r="G311">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>317</v>
+      </c>
+      <c r="B312">
+        <v>2081</v>
+      </c>
+      <c r="C312">
+        <v>2589</v>
+      </c>
+      <c r="D312">
+        <v>14992</v>
+      </c>
+      <c r="E312">
+        <v>2617</v>
+      </c>
+      <c r="F312">
+        <v>4531</v>
+      </c>
+      <c r="G312">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>318</v>
+      </c>
+      <c r="B313">
+        <v>2089</v>
+      </c>
+      <c r="C313">
+        <v>2599</v>
+      </c>
+      <c r="D313">
+        <v>15051</v>
+      </c>
+      <c r="E313">
+        <v>2627</v>
+      </c>
+      <c r="F313">
+        <v>4549</v>
+      </c>
+      <c r="G313">
+        <v>8740</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
